--- a/results/covalca_9_page_2.xlsx
+++ b/results/covalca_9_page_2.xlsx
@@ -493,7 +493,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>54324dcf-0fd3-4d7a-987b-222385115f52</t>
+          <t>5aacf56c-687f-4714-8e2d-9dfb9066123c</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -507,19 +507,16 @@
       <c r="D2" t="inlineStr">
         <is>
           <t>logo: Hyglox Inc.
-Company Name &amp; Tagline :
-  • The logo displays the company name "Hyglox Inc." in a bold, italicized gray font.
-  • "Inc." is in a smaller, lighter font beneath and to the right of "Hyglox".
-Graphic Elements :
-  • To the left of the text is a stylized globe formed by intersecting curved blue and red lines and grid segments.
+  • The logo consists of the company name "Hyglox Inc." in italicized, bold, gray font, with "Inc." in a smaller size and underlined.
+  • To the left of the text is a stylized globe formed by intersecting blue and red curved lines and grid segments.
   • Two five-pointed stars are present: one blue (upper left) and one red (lower right), partially overlapping the globe.
-  • The globe and stars use a red, blue, and white color palette.
-Dimensions &amp; Placement :
-  • The graphic is horizontally oriented, with the globe and stars to the left and the company name to the right.
   • The registered trademark symbol (®) appears after "Hyglox".
+  • The overall design uses a red, blue, and gray color palette.
+  • The logo is horizontally oriented, with the graphic element to the left and the text to the right.
 Analysis :
-  • The use of stars and globe suggests a global or American identity.
-  • The color scheme and dynamic lines convey a sense of movement and modernity.</t>
+  • The use of stars and a globe motif suggests a global or international focus, possibly with an American association due to the red and blue colors and star shapes.
+  • The italicized, bold font conveys a sense of motion and modernity.
+  • The registered trademark symbol indicates the logo is a legally protected brand mark.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -544,7 +541,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2025-08-12 04:24:33-06:00</t>
+          <t>2025-08-13 15:31:34-06:00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -555,26 +552,23 @@
       <c r="K2" t="inlineStr">
         <is>
           <t>logo: Hyglox Inc.
-Company Name &amp; Tagline :
-  • The logo displays the company name "Hyglox Inc." in a bold, italicized gray font.
-  • "Inc." is in a smaller, lighter font beneath and to the right of "Hyglox".
-Graphic Elements :
-  • To the left of the text is a stylized globe formed by intersecting curved blue and red lines and grid segments.
+  • The logo consists of the company name "Hyglox Inc." in italicized, bold, gray font, with "Inc." in a smaller size and underlined.
+  • To the left of the text is a stylized globe formed by intersecting blue and red curved lines and grid segments.
   • Two five-pointed stars are present: one blue (upper left) and one red (lower right), partially overlapping the globe.
-  • The globe and stars use a red, blue, and white color palette.
-Dimensions &amp; Placement :
-  • The graphic is horizontally oriented, with the globe and stars to the left and the company name to the right.
   • The registered trademark symbol (®) appears after "Hyglox".
+  • The overall design uses a red, blue, and gray color palette.
+  • The logo is horizontally oriented, with the graphic element to the left and the text to the right.
 Analysis :
-  • The use of stars and globe suggests a global or American identity.
-  • The color scheme and dynamic lines convey a sense of movement and modernity.</t>
+  • The use of stars and a globe motif suggests a global or international focus, possibly with an American association due to the red and blue colors and star shapes.
+  • The italicized, bold font conveys a sense of motion and modernity.
+  • The registered trademark symbol indicates the logo is a legally protected brand mark.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1e91b834-a17b-4425-b6a8-836be41eccb7</t>
+          <t>fe54b1a4-2e21-4189-95bf-13c01fd35609</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -587,10 +581,10 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Zona Libre de Colón  
-Cocosolito, Calle A Local B-7  
-Colón, Rep. de Panamá. Operation  
-Code 5318  
+          <t>Zona Libre de Colón
+Cocosolito, Calle A Local B-7
+Colón, Rep. de Panamá. Operation
+Code 5318
 Phone: (507) 431-1558</t>
         </is>
       </c>
@@ -616,7 +610,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2025-08-12 04:24:33-06:00</t>
+          <t>2025-08-13 15:31:34-06:00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -626,10 +620,10 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Zona Libre de Colón  
-Cocosolito, Calle A Local B-7  
-Colón, Rep. de Panamá. Operation  
-Code 5318  
+          <t>Zona Libre de Colón
+Cocosolito, Calle A Local B-7
+Colón, Rep. de Panamá. Operation
+Code 5318
 Phone: (507) 431-1558</t>
         </is>
       </c>
@@ -637,7 +631,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>a5df60fb-48ce-432a-8d33-48b9377832b9</t>
+          <t>d8d4b980-8886-4086-88d3-cb179587bf95</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -679,7 +673,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>2025-08-12 04:24:33-06:00</t>
+          <t>2025-08-13 15:31:34-06:00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -700,7 +694,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>d2a0174a-60ef-42a0-b1f4-c5cf02f16301</t>
+          <t>69815df0-e75c-4ce0-a7d3-9f87719c7150</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -741,7 +735,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2025-08-12 04:24:33-06:00</t>
+          <t>2025-08-13 15:31:34-06:00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -761,7 +755,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ce505a93-8c88-4c02-9ee9-9345d90a2ee8</t>
+          <t>28bf0efa-65e0-424d-a198-2301c554d780</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -774,7 +768,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ME0006        COVALCA MEXICO, S. A.  DE  C.  V.
+          <t>ME0006        COVALCA MEXICO, S. A. DE C. V.
 Anillo Periférico Poniente tablaje catastral no. 31546
 Bod.14 Col. Chenkú Lindavista C.P. 97219</t>
         </is>
@@ -801,7 +795,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>2025-08-12 04:24:33-06:00</t>
+          <t>2025-08-13 15:31:34-06:00</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -811,7 +805,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>ME0006        COVALCA MEXICO, S. A.  DE  C.  V.
+          <t>ME0006        COVALCA MEXICO, S. A. DE C. V.
 Anillo Periférico Poniente tablaje catastral no. 31546
 Bod.14 Col. Chenkú Lindavista C.P. 97219</t>
         </is>
@@ -820,7 +814,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>06a8ae2d-492e-47b8-9c42-3af51d5592bb</t>
+          <t>df9fd78a-5128-46eb-8011-4fadae4a3e06</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -858,7 +852,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2025-08-12 04:24:33-06:00</t>
+          <t>2025-08-13 15:31:34-06:00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -875,7 +869,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>df932b4e-315c-4586-9700-7f686b1dcd34</t>
+          <t>bdc26da7-9356-4e17-9058-da06372991e1</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -888,7 +882,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>&lt;table&gt;&lt;thead&gt;&lt;tr&gt;&lt;td&gt;Contacto / Contact&lt;/td&gt;&lt;td&gt;Enrique Dorantes&lt;/td&gt;&lt;td&gt;Teléfono / Phone&lt;/td&gt;&lt;td&gt;+52 (999)688-9903&lt;/td&gt;&lt;td&gt;Fax&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;Cond. Pago / Payment.&lt;/td&gt;&lt;td&gt;C: 120 DÍAS FECHA DMC&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;Orden Compra / Purchase Order&lt;/td&gt;&lt;td&gt;Embarque /Transportation&lt;/td&gt;&lt;td&gt;Peso Neto / Net Weigh&lt;/td&gt;&lt;td&gt;M3&lt;/td&gt;&lt;td&gt;Bultos / Package&lt;/td&gt;&lt;td colspan="2"&gt;Términos de Embarque / Incote&lt;/td&gt;&lt;td&gt;Agente / Agent&lt;/td&gt;&lt;/tr&gt;&lt;/thead&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;MARITIMO&lt;/td&gt;&lt;td&gt;1,483.00 Kgs.&lt;/td&gt;&lt;td&gt;1.982&lt;/td&gt;&lt;td&gt;26&lt;/td&gt;&lt;td colspan="2"&gt;EXW&lt;/td&gt;&lt;td&gt;CLIENTE ESPECIAL&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+          <t>&lt;table&gt;&lt;thead&gt;&lt;tr&gt;&lt;th&gt;Contacto / Contact&lt;/th&gt;&lt;th&gt;Enrique Dorantes&lt;/th&gt;&lt;th&gt;Teléfono / Phone&lt;/th&gt;&lt;th&gt;+52 (999)688-9903&lt;/th&gt;&lt;th&gt;Fax&lt;/th&gt;&lt;th&gt;&lt;/th&gt;&lt;th&gt;Cond. Pago / Payment.&lt;/th&gt;&lt;th&gt;C: 120 DÍAS FECHA DMC&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;th&gt;Orden Compra / Purchase Order&lt;/th&gt;&lt;th&gt;Embarque /Transportation&lt;/th&gt;&lt;th&gt;Peso Neto / Net Weight&lt;/th&gt;&lt;th&gt;M3&lt;/th&gt;&lt;th&gt;Bultos / Package&lt;/th&gt;&lt;th colspan="2"&gt;Términos de Embarque / Incote&lt;/th&gt;&lt;th&gt;Agente / Agent&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;MARITIMO&lt;/td&gt;&lt;td&gt;1,483.00 Kgs.&lt;/td&gt;&lt;td&gt;1.982&lt;/td&gt;&lt;td&gt;26&lt;/td&gt;&lt;td colspan="2"&gt;EXW&lt;/td&gt;&lt;td&gt;CLIENTE ESPECIAL&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -913,7 +907,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2025-08-12 04:24:33-06:00</t>
+          <t>2025-08-13 15:31:34-06:00</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -923,14 +917,14 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>[('Contacto / Contact', 'Enrique Dorantes', 'Teléfono / Phone', '+52 (999)688-9903', 'Fax', '', 'Cond. Pago / Payment.', 'C: 120 DÍAS FECHA DMC'), ('Orden Compra / Purchase Order', 'Embarque /Transportation', 'Peso Neto / Net Weigh', 'M3', 'Bultos / Package', 'Términos de Embarque / Incote', 'Agente / Agent'), ('', 'MARITIMO', '1,483.00 Kgs.', '1.982', '26', 'EXW', 'CLIENTE ESPECIAL')]</t>
+          <t>[('Contacto / Contact', 'Enrique Dorantes', 'Teléfono / Phone', '+52 (999)688-9903', 'Fax', '', 'Cond. Pago / Payment.', 'C: 120 DÍAS FECHA DMC'), ('Orden Compra / Purchase Order', 'Embarque /Transportation', 'Peso Neto / Net Weight', 'M3', 'Bultos / Package', 'Términos de Embarque / Incote', 'Agente / Agent'), ('', 'MARITIMO', '1,483.00 Kgs.', '1.982', '26', 'EXW', 'CLIENTE ESPECIAL')]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>53776e49-6c47-40d2-95d6-17f4bb2e7df9</t>
+          <t>b3491fcc-d176-4197-a093-7292f5fcea21</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -943,7 +937,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>&lt;table&gt;&lt;thead&gt;&lt;tr&gt;&lt;th&gt;No. Cte&lt;/th&gt;&lt;th&gt;Cant / Qty.&lt;/th&gt;&lt;th&gt;UM / MU&lt;/th&gt;&lt;th&gt;Código / Code&lt;/th&gt;&lt;th&gt;Cod Alt / Alt.&lt;/th&gt;&lt;th&gt;Cod Alt / Alt. Code2&lt;/th&gt;&lt;th&gt;P.Origen /Origin C&lt;/th&gt;&lt;th&gt;Descripción / Description&lt;/th&gt;&lt;th&gt;Precio Unitario /&lt;/th&gt;&lt;th&gt;Total&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;42&lt;/td&gt;&lt;td&gt;40.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK04-04MJPF&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIS (JAPONES)-RECTA 1/4"X 1/4" (1/4"-19)&lt;/td&gt;&lt;td&gt;4.53&lt;/td&gt;&lt;td&gt;181.20&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;43&lt;/td&gt;&lt;td&gt;60.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK04-05FJ&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-RECTO 1/4"X5/16" (7/16-20)&lt;/td&gt;&lt;td&gt;2.79&lt;/td&gt;&lt;td&gt;167.40&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;44&lt;/td&gt;&lt;td&gt;50.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK04-06MJ&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-RECTO 1/4X3/8 (9/16-18)&lt;/td&gt;&lt;td&gt;2.57&lt;/td&gt;&lt;td&gt;128.50&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;45&lt;/td&gt;&lt;td&gt;350.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK04-FK04&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;UNION PARA MANGUERA DE 1 A 2 MALLAS 1/4"&lt;/td&gt;&lt;td&gt;2.77&lt;/td&gt;&lt;td&gt;969.50&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;46&lt;/td&gt;&lt;td&gt;25.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK06-06BPF90T&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;HEMBRA GIRATORIA BSPP, TUBO A 90° 3/8X3/8&lt;/td&gt;&lt;td&gt;4.26&lt;/td&gt;&lt;td&gt;106.50&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;47&lt;/td&gt;&lt;td&gt;120.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK06-06FA&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;HEMBRA GIRATORIA ASIENTO PLANO 3/8X3/8 (9/16-18)&lt;/td&gt;&lt;td&gt;2.45&lt;/td&gt;&lt;td&gt;294.00&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;48&lt;/td&gt;&lt;td&gt;20.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK06-06FJ90TL&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-CODO A 90° LONG DROP 3/8X3/8 (9/16-18)&lt;/td&gt;&lt;td&gt;5.55&lt;/td&gt;&lt;td&gt;111.00&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;49&lt;/td&gt;&lt;td&gt;25.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK06-06QF4ST&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;HEMBRA GIRATORIA CON ASIENTO PLANO DE SELLO O-RING TUBO 3/8" X 3/8X3/8&lt;/td&gt;&lt;td&gt;4.45&lt;/td&gt;&lt;td&gt;111.25&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;50&lt;/td&gt;&lt;td&gt;100.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK06-06QF90T&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;HEMBRA GIRATORIA CON ASIENTO PLANO DE SELLO O-RING CODO A 90° 3/8X3/8 (11/16-16)&lt;/td&gt;&lt;td&gt;4.24&lt;/td&gt;&lt;td&gt;424.00&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;51&lt;/td&gt;&lt;td&gt;90.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK06-06QM&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;MACHO FIJO CON ASIENTO PLANO DE SELLO O-RING 3/8X3/8&lt;/td&gt;&lt;td&gt;2.91&lt;/td&gt;&lt;td&gt;261.90&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;52&lt;/td&gt;&lt;td&gt;30.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK06-08MJ&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA MACHO JIC 37°-RECTO 3/8X1/2 (3/4-16)&lt;/td&gt;&lt;td&gt;2.49&lt;/td&gt;&lt;td&gt;74.70&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;53&lt;/td&gt;&lt;td&gt;100.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK06-08MP&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN MACHO RIGIDO NPTF 3/8X1/2-18 ASIENTO CONO 60°&lt;/td&gt;&lt;td&gt;2.38&lt;/td&gt;&lt;td&gt;238.00&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;54&lt;/td&gt;&lt;td&gt;80.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK06-08QF90T&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;HEMBRA GIRATORIA CON ASIENTO PLANO DE SELLO O-RING CODO A 90° 3/8X1/2 (13/16-16)&lt;/td&gt;&lt;td&gt;5.16&lt;/td&gt;&lt;td&gt;412.80&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;55&lt;/td&gt;&lt;td&gt;25.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK06-08RA&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA MACHO BOOS (CON O-RING)-RECTO 3/8X1/2 (3/4-16)&lt;/td&gt;&lt;td&gt;6.63&lt;/td&gt;&lt;td&gt;165.75&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;56&lt;/td&gt;&lt;td&gt;25.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK06-14BM&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA BANJO METRICO-RECTO 3/8"X7/8" (M14X1.5)&lt;/td&gt;&lt;td&gt;8.66&lt;/td&gt;&lt;td&gt;216.50&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;57&lt;/td&gt;&lt;td&gt;25.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK06-16BM&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA BANJO METRICO-RECTO 3/8"X1" (M16X1.5)&lt;/td&gt;&lt;td&gt;7.64&lt;/td&gt;&lt;td&gt;191.00&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;58&lt;/td&gt;&lt;td&gt;40.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK06-16RU12L90T&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;HEMBRA GIRATORIA A 90° METRICA CONO 24° SERIE LIGERA 3/8X1 1/2 (M16X1.5)&lt;/td&gt;&lt;td&gt;4.17&lt;/td&gt;&lt;td&gt;166.80&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;59&lt;/td&gt;&lt;td&gt;60.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK06-20RU12S&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;HEMBRA GIRATORIA RECTA METRICA CONO 24° SERIE PESADA 3/8 X1 1/4 (M20X1.5)&lt;/td&gt;&lt;td&gt;3.84&lt;/td&gt;&lt;td&gt;230.40&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;60&lt;/td&gt;&lt;td&gt;20.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK06-22KW&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HID. HEMBRA GIRATORIA TIPO K (JET WASH)-RECTA 3/8X1 3/8 (M22X1.5)&lt;/td&gt;&lt;td&gt;3.80&lt;/td&gt;&lt;td&gt;76.00&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;61&lt;/td&gt;&lt;td&gt;30.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK06-FK06&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;UNION PARA MANGUERA DE 1 A 2 MALLAS 3/8"&lt;/td&gt;&lt;td&gt;3.53&lt;/td&gt;&lt;td&gt;105.90&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;62&lt;/td&gt;&lt;td&gt;40.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-06FJ&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-RECTO 1/2X3/8 (9/16-18)&lt;/td&gt;&lt;td&gt;2.74&lt;/td&gt;&lt;td&gt;109.60&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;63&lt;/td&gt;&lt;td&gt;25.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-06MP&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN MACHO RIGIDO NPTF 1/2"X3/8"-18 ASIENTO CONO 60° - RECTO&lt;/td&gt;&lt;td&gt;3.59&lt;/td&gt;&lt;td&gt;89.75&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;64&lt;/td&gt;&lt;td&gt;30.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-08BPF45T&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA GIRATORIA BSP (ASIENTO CONO 60°) CODO 45° 1/2X1/2 (1/2-14)&lt;/td&gt;&lt;td&gt;6.94&lt;/td&gt;&lt;td&gt;208.20&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;65&lt;/td&gt;&lt;td&gt;60.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-08BPF90T&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;HEMBRA GIRATORIA BSPP, TUBO A 90° 1/2X 1/2&lt;/td&gt;&lt;td&gt;4.89&lt;/td&gt;&lt;td&gt;293.40&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;66&lt;/td&gt;&lt;td&gt;20.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-08FJ90TL&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-CODO A 90° LONG DROP 1/2X1/2 (3/4-16)&lt;/td&gt;&lt;td&gt;7.28&lt;/td&gt;&lt;td&gt;145.60&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;67&lt;/td&gt;&lt;td&gt;80.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-08FN&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA HEMBRA GIRATORIA NPSM RECTA 1/2X1/2-14 (ASIENTO CONO 60°)&lt;/td&gt;&lt;td&gt;6.59&lt;/td&gt;&lt;td&gt;527.20&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;68&lt;/td&gt;&lt;td&gt;100.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-08MJ&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA MACHO JIC 37°-RECTO 1/2X1/2 (3/4-16)&lt;/td&gt;&lt;td&gt;2.53&lt;/td&gt;&lt;td&gt;253.00&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;69&lt;/td&gt;&lt;td&gt;40.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-08MJPF&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIS (JAPONES)-RECTA 1/2"X1/2" (1/2"-14)&lt;/td&gt;&lt;td&gt;7.35&lt;/td&gt;&lt;td&gt;294.00&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;70&lt;/td&gt;&lt;td&gt;50.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-08QM&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;MACHO FIJO CON ASIENTO PLANO DE SELLO O-RING 1/2X1/2&lt;/td&gt;&lt;td&gt;3.27&lt;/td&gt;&lt;td&gt;163.50&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;71&lt;/td&gt;&lt;td&gt;25.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-08SP&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN MACHO GIRATORIO NPTF 1/2 X 1/2 -14 ASIENTO CONO 60°&lt;/td&gt;&lt;td&gt;5.39&lt;/td&gt;&lt;td&gt;134.75&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;72&lt;/td&gt;&lt;td&gt;30.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-10FJ90T&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-CODO A 90° 1/2X5/8 (7/8-14)&lt;/td&gt;&lt;td&gt;8.74&lt;/td&gt;&lt;td&gt;262.20&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;73&lt;/td&gt;&lt;td&gt;75.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-10QF90T&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;HEMBRA GIRATORIA CON ASIENTO PLANO DE SELLO O-RING CODO A 90° 1/2 X 5/8 (1-1/4)&lt;/td&gt;&lt;td&gt;8.36&lt;/td&gt;&lt;td&gt;627.00&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;74&lt;/td&gt;&lt;td&gt;60.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-12FJ&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-RECTO 1/2X3/4 (1-1/16-12)&lt;/td&gt;&lt;td&gt;5.15&lt;/td&gt;&lt;td&gt;309.00&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;75&lt;/td&gt;&lt;td&gt;30.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-12MP&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN MACHO RIGIDO NPTF 1/2 X 3/4-18 ASIENTO CONO 60° - RECTO&lt;/td&gt;&lt;td&gt;4.07&lt;/td&gt;&lt;td&gt;122.10&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;76&lt;/td&gt;&lt;td&gt;30.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-12QFT&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;HEMBRA GIRATORIA CON ASIENTO PLANO DE SELLO O-RING 1/2X3/4&lt;/td&gt;&lt;td&gt;8.44&lt;/td&gt;&lt;td&gt;253.20&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;77&lt;/td&gt;&lt;td&gt;40.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-22RU1SL&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CON. HID. HEMBRA GIR. RECTA METRICA CONO 24° SERIE LIGERA 1/2" X 1 3/8" (M22X1.5)&lt;/td&gt;&lt;td&gt;4.39&lt;/td&gt;&lt;td&gt;175.60&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;78&lt;/td&gt;&lt;td&gt;50.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-24RU16S90T&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;HEMBRA GIRATORIA A 90° METRICA CONO 24° SERIE PESADA 1/2 1 1/2 (M24X1.5)&lt;/td&gt;&lt;td&gt;8.13&lt;/td&gt;&lt;td&gt;406.50&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;79&lt;/td&gt;&lt;td&gt;40.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK10-10FJ45T&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37° - CODO A 45° 5/8 X 5/8 (7/8-14)&lt;/td&gt;&lt;td&gt;6.97&lt;/td&gt;&lt;td&gt;278.80&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;80&lt;/td&gt;&lt;td&gt;40.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK10-12FJ&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-RECTO 5/8 X 3/4 (1-1/16-12)&lt;/td&gt;&lt;td&gt;6.08&lt;/td&gt;&lt;td&gt;243.20&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;81&lt;/td&gt;&lt;td&gt;20.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK10-12FJ90T&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-CODO A 90° 5/8X3/4 (1-1/16-12)&lt;/td&gt;&lt;td&gt;12.48&lt;/td&gt;&lt;td&gt;249.60&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;82&lt;/td&gt;&lt;td&gt;30.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK10-12MP&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN MACHO RIGIDO NPTF 5/8X3/4-18 ASIENTO CONO 60° - RECTO&lt;/td&gt;&lt;td&gt;4.47&lt;/td&gt;&lt;td&gt;134.10&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
+          <t>&lt;table&gt;&lt;thead&gt;&lt;tr&gt;&lt;th&gt;No. Cte&lt;/th&gt;&lt;th&gt;Cant / Qty.&lt;/th&gt;&lt;th&gt;UM / MU&lt;/th&gt;&lt;th&gt;Código / Code&lt;/th&gt;&lt;th&gt;Cod Alt / Alt.&lt;/th&gt;&lt;th&gt;Cod Alt / Alt. Code2&lt;/th&gt;&lt;th&gt;P.Origen /Origen C&lt;/th&gt;&lt;th&gt;Descripción / Description&lt;/th&gt;&lt;th&gt;Precio Unitario /&lt;/th&gt;&lt;th&gt;Total&lt;/th&gt;&lt;/tr&gt;&lt;/thead&gt;&lt;tbody&gt;&lt;tr&gt;&lt;td&gt;42&lt;/td&gt;&lt;td&gt;40.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK04-04MJPF&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIS (JAPONES)-RECTA 1/4"X 1/4" (1/4"-19)&lt;/td&gt;&lt;td&gt;4.53&lt;/td&gt;&lt;td&gt;181.20&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;43&lt;/td&gt;&lt;td&gt;60.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK04-05FJ&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-RECTO 1/4"X5/16" (7/16-20)&lt;/td&gt;&lt;td&gt;2.79&lt;/td&gt;&lt;td&gt;167.40&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;44&lt;/td&gt;&lt;td&gt;50.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK04-06MJ&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-RECTO 1/4X3/8 (9/16-18)&lt;/td&gt;&lt;td&gt;2.57&lt;/td&gt;&lt;td&gt;128.50&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;45&lt;/td&gt;&lt;td&gt;350.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK04-FK04&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;UNION PARA MANGUERA DE 1 A 2 MALLAS 1/4"&lt;/td&gt;&lt;td&gt;2.77&lt;/td&gt;&lt;td&gt;969.50&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;46&lt;/td&gt;&lt;td&gt;25.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK06-06BPF90T&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;HEMBRA GIRATORIA BSPP, TUBO A 90° 3/8X3/8&lt;/td&gt;&lt;td&gt;4.26&lt;/td&gt;&lt;td&gt;106.50&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;47&lt;/td&gt;&lt;td&gt;120.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK06-06FA&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;HEMBRA GIRATORIA ASIENTO PLANO 3/8X3/8 (9/16-18)&lt;/td&gt;&lt;td&gt;2.45&lt;/td&gt;&lt;td&gt;294.00&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;48&lt;/td&gt;&lt;td&gt;20.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK06-06FJ90TL&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-CODO A 90° LONG DROP 3/8X3/8 (9/16-18)&lt;/td&gt;&lt;td&gt;5.55&lt;/td&gt;&lt;td&gt;111.00&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;49&lt;/td&gt;&lt;td&gt;25.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK06-06QF4ST&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;HEMBRA GIRATORIA CON ASIENTO PLANO DE SELLO O-RING TUBO 3/8" X 3/8X3/8&lt;/td&gt;&lt;td&gt;4.45&lt;/td&gt;&lt;td&gt;111.25&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;50&lt;/td&gt;&lt;td&gt;100.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK06-06QF90T&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;HEMBRA GIRATORIA CON ASIENTO PLANO DE SELLO O-RING CODO A 90° 3/8X3/8 (11/16-16)&lt;/td&gt;&lt;td&gt;4.24&lt;/td&gt;&lt;td&gt;424.00&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;51&lt;/td&gt;&lt;td&gt;90.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK06-06QM&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;MACHO FIJO CON ASIENTO PLANO DE SELLO O-RING 3/8X3/8&lt;/td&gt;&lt;td&gt;2.91&lt;/td&gt;&lt;td&gt;261.90&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;52&lt;/td&gt;&lt;td&gt;30.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK06-08MJ&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA MACHO JIC 37°-RECTO 3/8X1/2 (3/4-16)&lt;/td&gt;&lt;td&gt;2.49&lt;/td&gt;&lt;td&gt;74.70&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;53&lt;/td&gt;&lt;td&gt;100.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK06-08MP&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN MACHO RIGIDO NPTF 3/8X1/2-18 ASIENTO CONO 60° - RECTO&lt;/td&gt;&lt;td&gt;2.38&lt;/td&gt;&lt;td&gt;238.00&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;54&lt;/td&gt;&lt;td&gt;80.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK06-08QF90T&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;HEMBRA GIRATORIA CON ASIENTO PLANO DE SELLO O-RING CODO A 90° 3/8X1/2 (13/16-16)&lt;/td&gt;&lt;td&gt;5.16&lt;/td&gt;&lt;td&gt;412.80&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;55&lt;/td&gt;&lt;td&gt;25.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK06-08RA&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA MACHO BOOS (CON O-RING)-RECTO 3/8X1/2 (3/4-16)&lt;/td&gt;&lt;td&gt;6.63&lt;/td&gt;&lt;td&gt;165.75&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;56&lt;/td&gt;&lt;td&gt;25.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK06-14BM&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA BANJO METRICO-RECTO 3/8"X7/8" (M14X1.5)&lt;/td&gt;&lt;td&gt;8.66&lt;/td&gt;&lt;td&gt;216.50&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;57&lt;/td&gt;&lt;td&gt;25.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK06-16BM&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA BANJO METRICO-RECTO 3/8"X1" (M16X1.5)&lt;/td&gt;&lt;td&gt;7.64&lt;/td&gt;&lt;td&gt;191.00&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;58&lt;/td&gt;&lt;td&gt;40.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK06-16RU12L90T&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;HEMBRA GIRATORIA A 90° METRICA CONO 24° SERIE LIGERA 3/8X1 1/2 (M16X1.5)&lt;/td&gt;&lt;td&gt;4.17&lt;/td&gt;&lt;td&gt;166.80&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;59&lt;/td&gt;&lt;td&gt;60.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK06-20RU12S&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;HEMBRA GIRATORIA RECTA METRICA CONO 24° SERIE PESADA 3/8 X1 1/4 (M20X1.5)&lt;/td&gt;&lt;td&gt;3.84&lt;/td&gt;&lt;td&gt;230.40&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;60&lt;/td&gt;&lt;td&gt;20.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK06-22KW&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HID. HEMBRA GIRATORIA TIPO K (JET WASH)-RECTA 3/8X1 3/8 (M22X1.5)&lt;/td&gt;&lt;td&gt;3.80&lt;/td&gt;&lt;td&gt;76.00&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;61&lt;/td&gt;&lt;td&gt;30.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK06-FK06&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;UNION PARA MANGUERA DE 1 A 2 MALLAS 3/8"&lt;/td&gt;&lt;td&gt;3.53&lt;/td&gt;&lt;td&gt;105.90&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;62&lt;/td&gt;&lt;td&gt;40.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-06FJ&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-RECTO 1/2X3/8 (9/16-18)&lt;/td&gt;&lt;td&gt;2.74&lt;/td&gt;&lt;td&gt;109.60&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;63&lt;/td&gt;&lt;td&gt;25.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-06MP&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN MACHO RIGIDO NPTF 1/2"X3/8"-18 ASIENTO CONO 60° - RECTO&lt;/td&gt;&lt;td&gt;3.59&lt;/td&gt;&lt;td&gt;89.75&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;64&lt;/td&gt;&lt;td&gt;30.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-08BPF45T&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA GIRATORIA BSPP (ASIENTO CONO 60°) CODO 45° 1/2X1/2 (1/2-14)&lt;/td&gt;&lt;td&gt;6.94&lt;/td&gt;&lt;td&gt;208.20&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;65&lt;/td&gt;&lt;td&gt;60.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-08BPF90T&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;HEMBRA GIRATORIA BSPP, TUBO A 90° 1/2X 1/2&lt;/td&gt;&lt;td&gt;4.89&lt;/td&gt;&lt;td&gt;293.40&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;66&lt;/td&gt;&lt;td&gt;20.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-08FJ90TL&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-CODO A 90° LONG DROP 1/2X1/2 (3/4-16)&lt;/td&gt;&lt;td&gt;7.28&lt;/td&gt;&lt;td&gt;145.60&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;67&lt;/td&gt;&lt;td&gt;80.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-08FN&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA HEMBRA GIRATORIA NPSM RECTA 1/2X1/2 (3/4-14) ASIENTO CONO 60°&lt;/td&gt;&lt;td&gt;6.59&lt;/td&gt;&lt;td&gt;527.20&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;68&lt;/td&gt;&lt;td&gt;100.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-08MJ&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA MACHO JIC 37°-RECTO 1/2X1/2 (3/4-16)&lt;/td&gt;&lt;td&gt;2.53&lt;/td&gt;&lt;td&gt;253.00&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;69&lt;/td&gt;&lt;td&gt;40.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-08MJPF&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIS (JAPONES)-RECTA 1/2"X1/2" (1/2"-14)&lt;/td&gt;&lt;td&gt;7.35&lt;/td&gt;&lt;td&gt;294.00&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;70&lt;/td&gt;&lt;td&gt;50.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-08QM&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;MACHO FIJO CON ASIENTO PLANO DE SELLO O-RING 1/2X1/2&lt;/td&gt;&lt;td&gt;3.27&lt;/td&gt;&lt;td&gt;163.50&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;71&lt;/td&gt;&lt;td&gt;25.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-08SP&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN MACHO GIRATORIO NPTF 1/2 X 1/2 -14 ASIENTO CONO 60°&lt;/td&gt;&lt;td&gt;5.39&lt;/td&gt;&lt;td&gt;134.75&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;72&lt;/td&gt;&lt;td&gt;30.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-10FJ90T&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-CODO A 90° 1/2X5/8 (7/8-14)&lt;/td&gt;&lt;td&gt;8.74&lt;/td&gt;&lt;td&gt;262.20&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;73&lt;/td&gt;&lt;td&gt;75.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-10QF90T&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;HEMBRA GIRATORIA CON ASIENTO PLANO DE SELLO O-RING CODO A 90° 1/2 X 5/8 (1-14)&lt;/td&gt;&lt;td&gt;8.36&lt;/td&gt;&lt;td&gt;627.00&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;74&lt;/td&gt;&lt;td&gt;60.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-12FJ&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-RECTO 1/2X3/4 (1-1/16-12)&lt;/td&gt;&lt;td&gt;5.15&lt;/td&gt;&lt;td&gt;309.00&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;75&lt;/td&gt;&lt;td&gt;30.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-12MP&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN MACHO RIGIDO NPTF 1/2 X 3/4-18 ASIENTO CONO 60° - RECTO&lt;/td&gt;&lt;td&gt;4.07&lt;/td&gt;&lt;td&gt;122.10&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;76&lt;/td&gt;&lt;td&gt;30.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-12QFT&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;HEMBRA GIRATORIA CON ASIENTO PLANO DE SELLO O-RING 1/2X3/4 (1-1/16-12)&lt;/td&gt;&lt;td&gt;8.44&lt;/td&gt;&lt;td&gt;253.20&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;77&lt;/td&gt;&lt;td&gt;40.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-22RU1SL&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CON. HID. HEMBRA GIR. RECTA METRICA CONO 24° SERIE LIGERA 1/2" X 1 3/8" (M22X1.5)&lt;/td&gt;&lt;td&gt;4.39&lt;/td&gt;&lt;td&gt;175.60&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;78&lt;/td&gt;&lt;td&gt;50.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK08-24RU16S90T&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;HEMBRA GIRATORIA A 90° METRICA CONO 24° SERIE PESADA 1/2 1 1/2 (M24X1.5)&lt;/td&gt;&lt;td&gt;8.13&lt;/td&gt;&lt;td&gt;406.50&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;79&lt;/td&gt;&lt;td&gt;40.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK10-10FJ45T&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37° - CODO A 45° 5/8X5/8 (7/8-14)&lt;/td&gt;&lt;td&gt;6.97&lt;/td&gt;&lt;td&gt;278.80&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;80&lt;/td&gt;&lt;td&gt;40.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK10-12FJ&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-RECTO 5/8 X 3/4 (1-1/16-12)&lt;/td&gt;&lt;td&gt;6.08&lt;/td&gt;&lt;td&gt;243.20&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;81&lt;/td&gt;&lt;td&gt;20.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK10-12FJ90T&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-CODO A 90° 5/8X3/4 (1-1/16-12)&lt;/td&gt;&lt;td&gt;12.48&lt;/td&gt;&lt;td&gt;249.60&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;82&lt;/td&gt;&lt;td&gt;30.00&lt;/td&gt;&lt;td&gt;CU&lt;/td&gt;&lt;td&gt;FK10-12MP&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;&lt;/td&gt;&lt;td&gt;ITALIA&lt;/td&gt;&lt;td&gt;CONEXIÓN MACHO RIGIDO NPTF 5/8X3/4-18 ASIENTO CONO 60° - RECTO&lt;/td&gt;&lt;td&gt;4.47&lt;/td&gt;&lt;td&gt;134.10&lt;/td&gt;&lt;/tr&gt;&lt;/tbody&gt;&lt;/table&gt;</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -968,7 +962,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2025-08-12 04:24:33-06:00</t>
+          <t>2025-08-13 15:31:34-06:00</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -978,14 +972,14 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>[('No. Cte', 'Cant / Qty.', 'UM / MU', 'Código / Code', 'Cod Alt / Alt.', 'Cod Alt / Alt. Code2', 'P.Origen /Origin C', 'Descripción / Description', 'Precio Unitario /', 'Total'), ('42', '40.00', 'CU', 'FK04-04MJPF', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIS (JAPONES)-RECTA 1/4"X 1/4" (1/4"-19)', '4.53', '181.20'), ('43', '60.00', 'CU', 'FK04-05FJ', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-RECTO 1/4"X5/16" (7/16-20)', '2.79', '167.40'), ('44', '50.00', 'CU', 'FK04-06MJ', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-RECTO 1/4X3/8 (9/16-18)', '2.57', '128.50'), ('45', '350.00', 'CU', 'FK04-FK04', '', '', 'ITALIA', 'UNION PARA MANGUERA DE 1 A 2 MALLAS 1/4"', '2.77', '969.50'), ('46', '25.00', 'CU', 'FK06-06BPF90T', '', '', 'ITALIA', 'HEMBRA GIRATORIA BSPP, TUBO A 90° 3/8X3/8', '4.26', '106.50'), ('47', '120.00', 'CU', 'FK06-06FA', '', '', 'ITALIA', 'HEMBRA GIRATORIA ASIENTO PLANO 3/8X3/8 (9/16-18)', '2.45', '294.00'), ('48', '20.00', 'CU', 'FK06-06FJ90TL', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-CODO A 90° LONG DROP 3/8X3/8 (9/16-18)', '5.55', '111.00'), ('49', '25.00', 'CU', 'FK06-06QF4ST', '', '', 'ITALIA', 'HEMBRA GIRATORIA CON ASIENTO PLANO DE SELLO O-RING TUBO 3/8" X 3/8X3/8', '4.45', '111.25'), ('50', '100.00', 'CU', 'FK06-06QF90T', '', '', 'ITALIA', 'HEMBRA GIRATORIA CON ASIENTO PLANO DE SELLO O-RING CODO A 90° 3/8X3/8 (11/16-16)', '4.24', '424.00'), ('51', '90.00', 'CU', 'FK06-06QM', '', '', 'ITALIA', 'MACHO FIJO CON ASIENTO PLANO DE SELLO O-RING 3/8X3/8', '2.91', '261.90'), ('52', '30.00', 'CU', 'FK06-08MJ', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA MACHO JIC 37°-RECTO 3/8X1/2 (3/4-16)', '2.49', '74.70'), ('53', '100.00', 'CU', 'FK06-08MP', '', '', 'ITALIA', 'CONEXIÓN MACHO RIGIDO NPTF 3/8X1/2-18 ASIENTO CONO 60°', '2.38', '238.00'), ('54', '80.00', 'CU', 'FK06-08QF90T', '', '', 'ITALIA', 'HEMBRA GIRATORIA CON ASIENTO PLANO DE SELLO O-RING CODO A 90° 3/8X1/2 (13/16-16)', '5.16', '412.80'), ('55', '25.00', 'CU', 'FK06-08RA', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA MACHO BOOS (CON O-RING)-RECTO 3/8X1/2 (3/4-16)', '6.63', '165.75'), ('56', '25.00', 'CU', 'FK06-14BM', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA BANJO METRICO-RECTO 3/8"X7/8" (M14X1.5)', '8.66', '216.50'), ('57', '25.00', 'CU', 'FK06-16BM', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA BANJO METRICO-RECTO 3/8"X1" (M16X1.5)', '7.64', '191.00'), ('58', '40.00', 'CU', 'FK06-16RU12L90T', '', '', 'ITALIA', 'HEMBRA GIRATORIA A 90° METRICA CONO 24° SERIE LIGERA 3/8X1 1/2 (M16X1.5)', '4.17', '166.80'), ('59', '60.00', 'CU', 'FK06-20RU12S', '', '', 'ITALIA', 'HEMBRA GIRATORIA RECTA METRICA CONO 24° SERIE PESADA 3/8 X1 1/4 (M20X1.5)', '3.84', '230.40'), ('60', '20.00', 'CU', 'FK06-22KW', '', '', 'ITALIA', 'CONEXIÓN HID. HEMBRA GIRATORIA TIPO K (JET WASH)-RECTA 3/8X1 3/8 (M22X1.5)', '3.80', '76.00'), ('61', '30.00', 'CU', 'FK06-FK06', '', '', 'ITALIA', 'UNION PARA MANGUERA DE 1 A 2 MALLAS 3/8"', '3.53', '105.90'), ('62', '40.00', 'CU', 'FK08-06FJ', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-RECTO 1/2X3/8 (9/16-18)', '2.74', '109.60'), ('63', '25.00', 'CU', 'FK08-06MP', '', '', 'ITALIA', 'CONEXIÓN MACHO RIGIDO NPTF 1/2"X3/8"-18 ASIENTO CONO 60° - RECTO', '3.59', '89.75'), ('64', '30.00', 'CU', 'FK08-08BPF45T', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA GIRATORIA BSP (ASIENTO CONO 60°) CODO 45° 1/2X1/2 (1/2-14)', '6.94', '208.20'), ('65', '60.00', 'CU', 'FK08-08BPF90T', '', '', 'ITALIA', 'HEMBRA GIRATORIA BSPP, TUBO A 90° 1/2X 1/2', '4.89', '293.40'), ('66', '20.00', 'CU', 'FK08-08FJ90TL', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-CODO A 90° LONG DROP 1/2X1/2 (3/4-16)', '7.28', '145.60'), ('67', '80.00', 'CU', 'FK08-08FN', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA HEMBRA GIRATORIA NPSM RECTA 1/2X1/2-14 (ASIENTO CONO 60°)', '6.59', '527.20'), ('68', '100.00', 'CU', 'FK08-08MJ', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA MACHO JIC 37°-RECTO 1/2X1/2 (3/4-16)', '2.53', '253.00'), ('69', '40.00', 'CU', 'FK08-08MJPF', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIS (JAPONES)-RECTA 1/2"X1/2" (1/2"-14)', '7.35', '294.00'), ('70', '50.00', 'CU', 'FK08-08QM', '', '', 'ITALIA', 'MACHO FIJO CON ASIENTO PLANO DE SELLO O-RING 1/2X1/2', '3.27', '163.50'), ('71', '25.00', 'CU', 'FK08-08SP', '', '', 'ITALIA', 'CONEXIÓN MACHO GIRATORIO NPTF 1/2 X 1/2 -14 ASIENTO CONO 60°', '5.39', '134.75'), ('72', '30.00', 'CU', 'FK08-10FJ90T', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-CODO A 90° 1/2X5/8 (7/8-14)', '8.74', '262.20'), ('73', '75.00', 'CU', 'FK08-10QF90T', '', '', 'ITALIA', 'HEMBRA GIRATORIA CON ASIENTO PLANO DE SELLO O-RING CODO A 90° 1/2 X 5/8 (1-1/4)', '8.36', '627.00'), ('74', '60.00', 'CU', 'FK08-12FJ', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-RECTO 1/2X3/4 (1-1/16-12)', '5.15', '309.00'), ('75', '30.00', 'CU', 'FK08-12MP', '', '', 'ITALIA', 'CONEXIÓN MACHO RIGIDO NPTF 1/2 X 3/4-18 ASIENTO CONO 60° - RECTO', '4.07', '122.10'), ('76', '30.00', 'CU', 'FK08-12QFT', '', '', 'ITALIA', 'HEMBRA GIRATORIA CON ASIENTO PLANO DE SELLO O-RING 1/2X3/4', '8.44', '253.20'), ('77', '40.00', 'CU', 'FK08-22RU1SL', '', '', 'ITALIA', 'CON. HID. HEMBRA GIR. RECTA METRICA CONO 24° SERIE LIGERA 1/2" X 1 3/8" (M22X1.5)', '4.39', '175.60'), ('78', '50.00', 'CU', 'FK08-24RU16S90T', '', '', 'ITALIA', 'HEMBRA GIRATORIA A 90° METRICA CONO 24° SERIE PESADA 1/2 1 1/2 (M24X1.5)', '8.13', '406.50'), ('79', '40.00', 'CU', 'FK10-10FJ45T', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37° - CODO A 45° 5/8 X 5/8 (7/8-14)', '6.97', '278.80'), ('80', '40.00', 'CU', 'FK10-12FJ', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-RECTO 5/8 X 3/4 (1-1/16-12)', '6.08', '243.20'), ('81', '20.00', 'CU', 'FK10-12FJ90T', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-CODO A 90° 5/8X3/4 (1-1/16-12)', '12.48', '249.60'), ('82', '30.00', 'CU', 'FK10-12MP', '', '', 'ITALIA', 'CONEXIÓN MACHO RIGIDO NPTF 5/8X3/4-18 ASIENTO CONO 60° - RECTO', '4.47', '134.10')]</t>
+          <t>[('No. Cte', 'Cant / Qty.', 'UM / MU', 'Código / Code', 'Cod Alt / Alt.', 'Cod Alt / Alt. Code2', 'P.Origen /Origen C', 'Descripción / Description', 'Precio Unitario /', 'Total'), ('42', '40.00', 'CU', 'FK04-04MJPF', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIS (JAPONES)-RECTA 1/4"X 1/4" (1/4"-19)', '4.53', '181.20'), ('43', '60.00', 'CU', 'FK04-05FJ', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-RECTO 1/4"X5/16" (7/16-20)', '2.79', '167.40'), ('44', '50.00', 'CU', 'FK04-06MJ', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-RECTO 1/4X3/8 (9/16-18)', '2.57', '128.50'), ('45', '350.00', 'CU', 'FK04-FK04', '', '', 'ITALIA', 'UNION PARA MANGUERA DE 1 A 2 MALLAS 1/4"', '2.77', '969.50'), ('46', '25.00', 'CU', 'FK06-06BPF90T', '', '', 'ITALIA', 'HEMBRA GIRATORIA BSPP, TUBO A 90° 3/8X3/8', '4.26', '106.50'), ('47', '120.00', 'CU', 'FK06-06FA', '', '', 'ITALIA', 'HEMBRA GIRATORIA ASIENTO PLANO 3/8X3/8 (9/16-18)', '2.45', '294.00'), ('48', '20.00', 'CU', 'FK06-06FJ90TL', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-CODO A 90° LONG DROP 3/8X3/8 (9/16-18)', '5.55', '111.00'), ('49', '25.00', 'CU', 'FK06-06QF4ST', '', '', 'ITALIA', 'HEMBRA GIRATORIA CON ASIENTO PLANO DE SELLO O-RING TUBO 3/8" X 3/8X3/8', '4.45', '111.25'), ('50', '100.00', 'CU', 'FK06-06QF90T', '', '', 'ITALIA', 'HEMBRA GIRATORIA CON ASIENTO PLANO DE SELLO O-RING CODO A 90° 3/8X3/8 (11/16-16)', '4.24', '424.00'), ('51', '90.00', 'CU', 'FK06-06QM', '', '', 'ITALIA', 'MACHO FIJO CON ASIENTO PLANO DE SELLO O-RING 3/8X3/8', '2.91', '261.90'), ('52', '30.00', 'CU', 'FK06-08MJ', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA MACHO JIC 37°-RECTO 3/8X1/2 (3/4-16)', '2.49', '74.70'), ('53', '100.00', 'CU', 'FK06-08MP', '', '', 'ITALIA', 'CONEXIÓN MACHO RIGIDO NPTF 3/8X1/2-18 ASIENTO CONO 60° - RECTO', '2.38', '238.00'), ('54', '80.00', 'CU', 'FK06-08QF90T', '', '', 'ITALIA', 'HEMBRA GIRATORIA CON ASIENTO PLANO DE SELLO O-RING CODO A 90° 3/8X1/2 (13/16-16)', '5.16', '412.80'), ('55', '25.00', 'CU', 'FK06-08RA', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA MACHO BOOS (CON O-RING)-RECTO 3/8X1/2 (3/4-16)', '6.63', '165.75'), ('56', '25.00', 'CU', 'FK06-14BM', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA BANJO METRICO-RECTO 3/8"X7/8" (M14X1.5)', '8.66', '216.50'), ('57', '25.00', 'CU', 'FK06-16BM', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA BANJO METRICO-RECTO 3/8"X1" (M16X1.5)', '7.64', '191.00'), ('58', '40.00', 'CU', 'FK06-16RU12L90T', '', '', 'ITALIA', 'HEMBRA GIRATORIA A 90° METRICA CONO 24° SERIE LIGERA 3/8X1 1/2 (M16X1.5)', '4.17', '166.80'), ('59', '60.00', 'CU', 'FK06-20RU12S', '', '', 'ITALIA', 'HEMBRA GIRATORIA RECTA METRICA CONO 24° SERIE PESADA 3/8 X1 1/4 (M20X1.5)', '3.84', '230.40'), ('60', '20.00', 'CU', 'FK06-22KW', '', '', 'ITALIA', 'CONEXIÓN HID. HEMBRA GIRATORIA TIPO K (JET WASH)-RECTA 3/8X1 3/8 (M22X1.5)', '3.80', '76.00'), ('61', '30.00', 'CU', 'FK06-FK06', '', '', 'ITALIA', 'UNION PARA MANGUERA DE 1 A 2 MALLAS 3/8"', '3.53', '105.90'), ('62', '40.00', 'CU', 'FK08-06FJ', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-RECTO 1/2X3/8 (9/16-18)', '2.74', '109.60'), ('63', '25.00', 'CU', 'FK08-06MP', '', '', 'ITALIA', 'CONEXIÓN MACHO RIGIDO NPTF 1/2"X3/8"-18 ASIENTO CONO 60° - RECTO', '3.59', '89.75'), ('64', '30.00', 'CU', 'FK08-08BPF45T', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA GIRATORIA BSPP (ASIENTO CONO 60°) CODO 45° 1/2X1/2 (1/2-14)', '6.94', '208.20'), ('65', '60.00', 'CU', 'FK08-08BPF90T', '', '', 'ITALIA', 'HEMBRA GIRATORIA BSPP, TUBO A 90° 1/2X 1/2', '4.89', '293.40'), ('66', '20.00', 'CU', 'FK08-08FJ90TL', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-CODO A 90° LONG DROP 1/2X1/2 (3/4-16)', '7.28', '145.60'), ('67', '80.00', 'CU', 'FK08-08FN', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA HEMBRA GIRATORIA NPSM RECTA 1/2X1/2 (3/4-14) ASIENTO CONO 60°', '6.59', '527.20'), ('68', '100.00', 'CU', 'FK08-08MJ', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA MACHO JIC 37°-RECTO 1/2X1/2 (3/4-16)', '2.53', '253.00'), ('69', '40.00', 'CU', 'FK08-08MJPF', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIS (JAPONES)-RECTA 1/2"X1/2" (1/2"-14)', '7.35', '294.00'), ('70', '50.00', 'CU', 'FK08-08QM', '', '', 'ITALIA', 'MACHO FIJO CON ASIENTO PLANO DE SELLO O-RING 1/2X1/2', '3.27', '163.50'), ('71', '25.00', 'CU', 'FK08-08SP', '', '', 'ITALIA', 'CONEXIÓN MACHO GIRATORIO NPTF 1/2 X 1/2 -14 ASIENTO CONO 60°', '5.39', '134.75'), ('72', '30.00', 'CU', 'FK08-10FJ90T', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-CODO A 90° 1/2X5/8 (7/8-14)', '8.74', '262.20'), ('73', '75.00', 'CU', 'FK08-10QF90T', '', '', 'ITALIA', 'HEMBRA GIRATORIA CON ASIENTO PLANO DE SELLO O-RING CODO A 90° 1/2 X 5/8 (1-14)', '8.36', '627.00'), ('74', '60.00', 'CU', 'FK08-12FJ', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-RECTO 1/2X3/4 (1-1/16-12)', '5.15', '309.00'), ('75', '30.00', 'CU', 'FK08-12MP', '', '', 'ITALIA', 'CONEXIÓN MACHO RIGIDO NPTF 1/2 X 3/4-18 ASIENTO CONO 60° - RECTO', '4.07', '122.10'), ('76', '30.00', 'CU', 'FK08-12QFT', '', '', 'ITALIA', 'HEMBRA GIRATORIA CON ASIENTO PLANO DE SELLO O-RING 1/2X3/4 (1-1/16-12)', '8.44', '253.20'), ('77', '40.00', 'CU', 'FK08-22RU1SL', '', '', 'ITALIA', 'CON. HID. HEMBRA GIR. RECTA METRICA CONO 24° SERIE LIGERA 1/2" X 1 3/8" (M22X1.5)', '4.39', '175.60'), ('78', '50.00', 'CU', 'FK08-24RU16S90T', '', '', 'ITALIA', 'HEMBRA GIRATORIA A 90° METRICA CONO 24° SERIE PESADA 1/2 1 1/2 (M24X1.5)', '8.13', '406.50'), ('79', '40.00', 'CU', 'FK10-10FJ45T', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37° - CODO A 45° 5/8X5/8 (7/8-14)', '6.97', '278.80'), ('80', '40.00', 'CU', 'FK10-12FJ', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-RECTO 5/8 X 3/4 (1-1/16-12)', '6.08', '243.20'), ('81', '20.00', 'CU', 'FK10-12FJ90T', '', '', 'ITALIA', 'CONEXIÓN HIDRAULICA HEMBRA GIRATORIA JIC 37°-CODO A 90° 5/8X3/4 (1-1/16-12)', '12.48', '249.60'), ('82', '30.00', 'CU', 'FK10-12MP', '', '', 'ITALIA', 'CONEXIÓN MACHO RIGIDO NPTF 5/8X3/4-18 ASIENTO CONO 60° - RECTO', '4.47', '134.10')]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>fac2e546-83a5-485a-bb4b-8addc99045d0</t>
+          <t>46a7f1a1-8b09-4a13-9ec4-f8f5033d538c</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1023,7 +1017,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>2025-08-12 04:24:33-06:00</t>
+          <t>2025-08-13 15:31:34-06:00</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
